--- a/data/needle_3CH_3AA/01-27-2021_Test-Refraction/measured-arclength_fbg-camera.xlsx
+++ b/data/needle_3CH_3AA/01-27-2021_Test-Refraction/measured-arclength_fbg-camera.xlsx
@@ -7,13 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="45">
   <si>
     <t>actual</t>
   </si>
@@ -25,6 +27,129 @@
   </si>
   <si>
     <t>error</t>
+  </si>
+  <si>
+    <t>hole_num</t>
+  </si>
+  <si>
+    <t>abs_error</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>GroupCount</t>
+  </si>
+  <si>
+    <t>mean_hole_num</t>
+  </si>
+  <si>
+    <t>mean_FBG</t>
+  </si>
+  <si>
+    <t>mean_camera</t>
+  </si>
+  <si>
+    <t>mean_error</t>
+  </si>
+  <si>
+    <t>mean_abs_error</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>mean_actual</t>
+  </si>
+  <si>
+    <t>min_hole_num</t>
+  </si>
+  <si>
+    <t>std_hole_num</t>
+  </si>
+  <si>
+    <t>max_hole_num</t>
+  </si>
+  <si>
+    <t>min_FBG</t>
+  </si>
+  <si>
+    <t>std_FBG</t>
+  </si>
+  <si>
+    <t>max_FBG</t>
+  </si>
+  <si>
+    <t>min_camera</t>
+  </si>
+  <si>
+    <t>std_camera</t>
+  </si>
+  <si>
+    <t>max_camera</t>
+  </si>
+  <si>
+    <t>min_error</t>
+  </si>
+  <si>
+    <t>std_error</t>
+  </si>
+  <si>
+    <t>max_error</t>
+  </si>
+  <si>
+    <t>min_abs_error</t>
+  </si>
+  <si>
+    <t>std_abs_error</t>
+  </si>
+  <si>
+    <t>max_abs_error</t>
+  </si>
+  <si>
+    <t>min_actual</t>
+  </si>
+  <si>
+    <t>std_actual</t>
+  </si>
+  <si>
+    <t>max_actual</t>
   </si>
 </sst>
 </file>
@@ -45,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -77,11 +202,29 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -107,6 +250,24 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,531 +277,1888 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:F37"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="10.140625" customWidth="true"/>
+    <col min="2" max="2" width="6.42578125" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="37" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>75</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>74.999999998945086</v>
       </c>
-      <c r="C2">
-        <v>65.350691924549764</v>
-      </c>
       <c r="D2">
-        <v>9.6493080754502358</v>
+        <v>66.793645492782773</v>
+      </c>
+      <c r="E2">
+        <v>8.2063545072172275</v>
+      </c>
+      <c r="F2">
+        <v>8.2063545072172275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>80</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>79.999999998899852</v>
       </c>
-      <c r="C3">
-        <v>68.07914657169971</v>
-      </c>
       <c r="D3">
-        <v>11.92085342830029</v>
+        <v>71.800190293513722</v>
+      </c>
+      <c r="E3">
+        <v>8.1998097064862776</v>
+      </c>
+      <c r="F3">
+        <v>8.1998097064862776</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>85</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>84.999999998834411</v>
       </c>
-      <c r="C4">
-        <v>74.327021019508337</v>
-      </c>
       <c r="D4">
-        <v>10.672978980491663</v>
+        <v>76.389004557618151</v>
+      </c>
+      <c r="E4">
+        <v>8.6109954423818493</v>
+      </c>
+      <c r="F4">
+        <v>8.6109954423818493</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>90</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>89.99999999881085</v>
       </c>
-      <c r="C5">
-        <v>79.784790202517343</v>
-      </c>
       <c r="D5">
-        <v>10.215209797482657</v>
+        <v>81.00834084684746</v>
+      </c>
+      <c r="E5">
+        <v>8.9916591531525398</v>
+      </c>
+      <c r="F5">
+        <v>8.9916591531525398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
         <v>75</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>74.999999999990123</v>
       </c>
-      <c r="C6">
-        <v>64.011566739549934</v>
-      </c>
       <c r="D6">
-        <v>10.988433260450066</v>
+        <v>66.503879008402322</v>
+      </c>
+      <c r="E6">
+        <v>8.4961209915976781</v>
+      </c>
+      <c r="F6">
+        <v>8.4961209915976781</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>80</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>79.999999997807706</v>
       </c>
-      <c r="C7">
-        <v>69.866140841127205</v>
-      </c>
       <c r="D7">
-        <v>10.133859158872795</v>
+        <v>71.948777617941602</v>
+      </c>
+      <c r="E7">
+        <v>8.0512223820583984</v>
+      </c>
+      <c r="F7">
+        <v>8.0512223820583984</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
         <v>85</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>84.999999984455854</v>
       </c>
-      <c r="C8">
-        <v>74.644960343266831</v>
-      </c>
       <c r="D8">
-        <v>10.355039656733169</v>
+        <v>76.309685354138423</v>
+      </c>
+      <c r="E8">
+        <v>8.6903146458615765</v>
+      </c>
+      <c r="F8">
+        <v>8.6903146458615765</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
         <v>90</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>89.999999925847348</v>
       </c>
-      <c r="C9">
-        <v>79.429092858700869</v>
-      </c>
       <c r="D9">
-        <v>10.570907141299131</v>
+        <v>81.092812321115744</v>
+      </c>
+      <c r="E9">
+        <v>8.9071876788842559</v>
+      </c>
+      <c r="F9">
+        <v>8.9071876788842559</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
         <v>75</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>74.999999994134001</v>
       </c>
-      <c r="C10">
-        <v>65.161158286886916</v>
-      </c>
       <c r="D10">
-        <v>9.8388417131130836</v>
+        <v>67.019621200507729</v>
+      </c>
+      <c r="E10">
+        <v>7.9803787994922715</v>
+      </c>
+      <c r="F10">
+        <v>7.9803787994922715</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
         <v>80</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>79.999999973547276</v>
       </c>
-      <c r="C11">
-        <v>69.358085177893884</v>
-      </c>
       <c r="D11">
-        <v>10.641914822106116</v>
+        <v>72.063844262117527</v>
+      </c>
+      <c r="E11">
+        <v>7.9361557378824727</v>
+      </c>
+      <c r="F11">
+        <v>7.9361557378824727</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
         <v>85</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>84.999999923069154</v>
       </c>
-      <c r="C12">
-        <v>74.557456231311065</v>
-      </c>
       <c r="D12">
-        <v>10.442543768688935</v>
+        <v>76.831148226580495</v>
+      </c>
+      <c r="E12">
+        <v>8.1688517734195045</v>
+      </c>
+      <c r="F12">
+        <v>8.1688517734195045</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
         <v>90</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>89.999999806504817</v>
       </c>
-      <c r="C13">
-        <v>79.686612620448614</v>
-      </c>
       <c r="D13">
-        <v>10.313387379551386</v>
+        <v>81.524396367221328</v>
+      </c>
+      <c r="E13">
+        <v>8.4756036327786717</v>
+      </c>
+      <c r="F13">
+        <v>8.4756036327786717</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
         <v>75</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>74.999999995265341</v>
       </c>
-      <c r="C14">
-        <v>63.830715913751334</v>
-      </c>
       <c r="D14">
-        <v>11.169284086248666</v>
+        <v>66.310738459091013</v>
+      </c>
+      <c r="E14">
+        <v>8.6892615409089871</v>
+      </c>
+      <c r="F14">
+        <v>8.6892615409089871</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
         <v>80</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>79.999999978294099</v>
       </c>
-      <c r="C15">
-        <v>68.642049359420085</v>
-      </c>
       <c r="D15">
-        <v>11.357950640579915</v>
+        <v>71.129736859014926</v>
+      </c>
+      <c r="E15">
+        <v>8.8702631409850738</v>
+      </c>
+      <c r="F15">
+        <v>8.8702631409850738</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
         <v>85</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>84.999999944510634</v>
       </c>
-      <c r="C16">
-        <v>73.436888699750199</v>
-      </c>
       <c r="D16">
-        <v>11.563111300249801</v>
+        <v>75.680497655703505</v>
+      </c>
+      <c r="E16">
+        <v>9.3195023442964953</v>
+      </c>
+      <c r="F16">
+        <v>9.3195023442964953</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
         <v>90</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>89.999999833006072</v>
       </c>
-      <c r="C17">
-        <v>78.215480227096421</v>
-      </c>
       <c r="D17">
-        <v>11.784519772903579</v>
+        <v>80.679452317020022</v>
+      </c>
+      <c r="E17">
+        <v>9.3205476829799778</v>
+      </c>
+      <c r="F17">
+        <v>9.3205476829799778</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
         <v>75</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>74.999999992241953</v>
       </c>
-      <c r="C18">
-        <v>65.837046438700511</v>
-      </c>
       <c r="D18">
-        <v>9.1629535612994886</v>
+        <v>68.487461167066996</v>
+      </c>
+      <c r="E18">
+        <v>6.5125388329330036</v>
+      </c>
+      <c r="F18">
+        <v>6.5125388329330036</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
         <v>80</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>79.999999967918981</v>
       </c>
-      <c r="C19">
-        <v>71.017694738333461</v>
-      </c>
       <c r="D19">
-        <v>8.9823052616665393</v>
+        <v>73.050663782465861</v>
+      </c>
+      <c r="E19">
+        <v>6.9493362175341389</v>
+      </c>
+      <c r="F19">
+        <v>6.9493362175341389</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
         <v>85</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>84.999999893972031</v>
       </c>
-      <c r="C20">
-        <v>76.050845707525696</v>
-      </c>
       <c r="D20">
-        <v>8.9491542924743044</v>
+        <v>78.06051160674059</v>
+      </c>
+      <c r="E20">
+        <v>6.9394883932594098</v>
+      </c>
+      <c r="F20">
+        <v>6.9394883932594098</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
         <v>90</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>89.999999770902036</v>
       </c>
-      <c r="C21">
-        <v>80.578743977344857</v>
-      </c>
       <c r="D21">
-        <v>9.4212560226551432</v>
+        <v>82.801607029556735</v>
+      </c>
+      <c r="E21">
+        <v>7.1983929704432654</v>
+      </c>
+      <c r="F21">
+        <v>7.1983929704432654</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
         <v>75</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>74.999999988899788</v>
       </c>
-      <c r="C22">
-        <v>66.085738143468888</v>
-      </c>
       <c r="D22">
-        <v>8.9142618565311125</v>
+        <v>69.922382123762659</v>
+      </c>
+      <c r="E22">
+        <v>5.0776178762373405</v>
+      </c>
+      <c r="F22">
+        <v>5.0776178762373405</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
         <v>80</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>79.999999969586199</v>
       </c>
-      <c r="C23">
-        <v>70.862087906201936</v>
-      </c>
       <c r="D23">
-        <v>9.1379120937980645</v>
+        <v>74.299443543788129</v>
+      </c>
+      <c r="E23">
+        <v>5.7005564562118707</v>
+      </c>
+      <c r="F23">
+        <v>5.7005564562118707</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
         <v>85</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>84.999999899541308</v>
       </c>
-      <c r="C24">
-        <v>75.666517448227381</v>
-      </c>
       <c r="D24">
-        <v>9.3334825517726188</v>
+        <v>79.135678371109279</v>
+      </c>
+      <c r="E24">
+        <v>5.8643216288907212</v>
+      </c>
+      <c r="F24">
+        <v>5.8643216288907212</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
         <v>90</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>89.999999714219172</v>
       </c>
-      <c r="C25">
-        <v>80.445701582411331</v>
-      </c>
       <c r="D25">
-        <v>9.5542984175886687</v>
+        <v>83.713865860301027</v>
+      </c>
+      <c r="E25">
+        <v>6.2861341396989729</v>
+      </c>
+      <c r="F25">
+        <v>6.2861341396989729</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
         <v>75</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>74.999999989234865</v>
       </c>
-      <c r="C26">
-        <v>65.355394530927384</v>
-      </c>
       <c r="D26">
-        <v>9.6446054690726157</v>
+        <v>69.267419597209297</v>
+      </c>
+      <c r="E26">
+        <v>5.7325804027907026</v>
+      </c>
+      <c r="F26">
+        <v>5.7325804027907026</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
         <v>80</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>79.999999965175434</v>
       </c>
-      <c r="C27">
-        <v>70.351440233671681</v>
-      </c>
       <c r="D27">
-        <v>9.6485597663283187</v>
+        <v>73.633738380794725</v>
+      </c>
+      <c r="E27">
+        <v>6.3662616192052752</v>
+      </c>
+      <c r="F27">
+        <v>6.3662616192052752</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
         <v>85</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>84.999999903897745</v>
       </c>
-      <c r="C28">
-        <v>74.715074701094636</v>
-      </c>
       <c r="D28">
-        <v>10.284925298905364</v>
+        <v>78.410791046712077</v>
+      </c>
+      <c r="E28">
+        <v>6.5892089532879226</v>
+      </c>
+      <c r="F28">
+        <v>6.5892089532879226</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
         <v>90</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>89.999999749521095</v>
       </c>
-      <c r="C29">
-        <v>79.500641539256947</v>
-      </c>
       <c r="D29">
-        <v>10.499358460743053</v>
+        <v>82.966410483030572</v>
+      </c>
+      <c r="E29">
+        <v>7.0335895169694282</v>
+      </c>
+      <c r="F29">
+        <v>7.0335895169694282</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
         <v>75</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>74.999999992592734</v>
       </c>
-      <c r="C30">
-        <v>65.659254597870188</v>
-      </c>
       <c r="D30">
-        <v>9.3407454021298122</v>
+        <v>69.464003315098381</v>
+      </c>
+      <c r="E30">
+        <v>5.5359966849016189</v>
+      </c>
+      <c r="F30">
+        <v>5.5359966849016189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
         <v>80</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>79.999999966503992</v>
       </c>
-      <c r="C31">
-        <v>70.240212915643724</v>
-      </c>
       <c r="D31">
-        <v>9.759787084356276</v>
+        <v>74.247926085246661</v>
+      </c>
+      <c r="E31">
+        <v>5.7520739147533391</v>
+      </c>
+      <c r="F31">
+        <v>5.7520739147533391</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
         <v>85</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>84.999999890355255</v>
       </c>
-      <c r="C32">
-        <v>75.014495161111753</v>
-      </c>
       <c r="D32">
-        <v>9.9855048388882466</v>
+        <v>78.827850123719628</v>
+      </c>
+      <c r="E32">
+        <v>6.1721498762803719</v>
+      </c>
+      <c r="F32">
+        <v>6.1721498762803719</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
         <v>90</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>89.999999732298235</v>
       </c>
-      <c r="C33">
-        <v>78.737092655271397</v>
-      </c>
       <c r="D33">
-        <v>11.262907344728603</v>
+        <v>83.379719022621046</v>
+      </c>
+      <c r="E33">
+        <v>6.6202809773789539</v>
+      </c>
+      <c r="F33">
+        <v>6.6202809773789539</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
         <v>75</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>74.999999990720482</v>
       </c>
-      <c r="C34">
-        <v>64.944655184377083</v>
-      </c>
       <c r="D34">
-        <v>10.055344815622917</v>
+        <v>69.14184707823344</v>
+      </c>
+      <c r="E34">
+        <v>5.8581529217665604</v>
+      </c>
+      <c r="F34">
+        <v>5.8581529217665604</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
         <v>80</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>79.999999964103026</v>
       </c>
-      <c r="C35">
-        <v>69.715098087116957</v>
-      </c>
       <c r="D35">
-        <v>10.284901912883043</v>
+        <v>74.538750701422046</v>
+      </c>
+      <c r="E35">
+        <v>5.4612492985779539</v>
+      </c>
+      <c r="F35">
+        <v>5.4612492985779539</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
         <v>85</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>84.999999882450169</v>
       </c>
-      <c r="C36">
-        <v>74.484216813294651</v>
-      </c>
       <c r="D36">
-        <v>10.515783186705349</v>
+        <v>79.306370573554659</v>
+      </c>
+      <c r="E36">
+        <v>5.6936294264453409</v>
+      </c>
+      <c r="F36">
+        <v>5.6936294264453409</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
         <v>90</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>89.999999877397286</v>
       </c>
-      <c r="C37">
-        <v>79.051518231301046</v>
-      </c>
       <c r="D37">
-        <v>10.948481768698954</v>
+        <v>84.111191471508079</v>
+      </c>
+      <c r="E37">
+        <v>5.8888085284919214</v>
+      </c>
+      <c r="F37">
+        <v>5.8888085284919214</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="true"/>
+    <col min="2" max="2" width="6.42578125" customWidth="true"/>
+    <col min="3" max="3" width="11.85546875" customWidth="true"/>
+    <col min="4" max="4" width="14.5703125" customWidth="true"/>
+    <col min="5" max="5" width="16.140625" customWidth="true"/>
+    <col min="6" max="6" width="13.85546875" customWidth="true"/>
+    <col min="7" max="7" width="14.85546875" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="15.5703125" customWidth="true"/>
+    <col min="11" max="11" width="9.28515625" customWidth="true"/>
+    <col min="12" max="12" width="12" customWidth="true"/>
+    <col min="13" max="13" width="13.5703125" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.28515625" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="14" customWidth="true"/>
+    <col min="21" max="21" width="15.5703125" customWidth="true"/>
+    <col min="22" max="22" width="13.28515625" customWidth="true"/>
+    <col min="23" max="23" width="14.28515625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>2.7386127875258306</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>74.999999988899788</v>
+      </c>
+      <c r="I2">
+        <v>74.999999993558248</v>
+      </c>
+      <c r="J2">
+        <v>3.9487870143552921e-09</v>
+      </c>
+      <c r="K2">
+        <v>74.999999999990123</v>
+      </c>
+      <c r="L2">
+        <v>66.310738459091013</v>
+      </c>
+      <c r="M2">
+        <v>68.10122193801719</v>
+      </c>
+      <c r="N2">
+        <v>1.4319064104929786</v>
+      </c>
+      <c r="O2">
+        <v>69.922382123762659</v>
+      </c>
+      <c r="P2">
+        <v>5.0776178762373405</v>
+      </c>
+      <c r="Q2">
+        <v>6.8987780619828207</v>
+      </c>
+      <c r="R2">
+        <v>1.4319064104929786</v>
+      </c>
+      <c r="S2">
+        <v>8.6892615409089871</v>
+      </c>
+      <c r="T2">
+        <v>5.0776178762373405</v>
+      </c>
+      <c r="U2">
+        <v>6.8987780619828207</v>
+      </c>
+      <c r="V2">
+        <v>1.4319064104929786</v>
+      </c>
+      <c r="W2">
+        <v>8.6892615409089871</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>2.7386127875258306</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>79.999999964103026</v>
+      </c>
+      <c r="I3">
+        <v>79.999999975759636</v>
+      </c>
+      <c r="J3">
+        <v>1.3537268339030974e-08</v>
+      </c>
+      <c r="K3">
+        <v>79.999999998899852</v>
+      </c>
+      <c r="L3">
+        <v>71.129736859014926</v>
+      </c>
+      <c r="M3">
+        <v>72.968119058478351</v>
+      </c>
+      <c r="N3">
+        <v>1.2711979573187406</v>
+      </c>
+      <c r="O3">
+        <v>74.538750701422046</v>
+      </c>
+      <c r="P3">
+        <v>5.4612492985779539</v>
+      </c>
+      <c r="Q3">
+        <v>7.0318809415216448</v>
+      </c>
+      <c r="R3">
+        <v>1.2711979573187406</v>
+      </c>
+      <c r="S3">
+        <v>8.8702631409850738</v>
+      </c>
+      <c r="T3">
+        <v>5.4612492985779539</v>
+      </c>
+      <c r="U3">
+        <v>7.0318809415216448</v>
+      </c>
+      <c r="V3">
+        <v>1.2711979573187406</v>
+      </c>
+      <c r="W3">
+        <v>8.8702631409850738</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>85</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>2.7386127875258306</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>84.999999882450169</v>
+      </c>
+      <c r="I4">
+        <v>84.999999924565188</v>
+      </c>
+      <c r="J4">
+        <v>4.2479615368042493e-08</v>
+      </c>
+      <c r="K4">
+        <v>84.999999998834411</v>
+      </c>
+      <c r="L4">
+        <v>75.680497655703505</v>
+      </c>
+      <c r="M4">
+        <v>77.661281946208533</v>
+      </c>
+      <c r="N4">
+        <v>1.3702336678072593</v>
+      </c>
+      <c r="O4">
+        <v>79.306370573554659</v>
+      </c>
+      <c r="P4">
+        <v>5.6936294264453409</v>
+      </c>
+      <c r="Q4">
+        <v>7.3387180537914656</v>
+      </c>
+      <c r="R4">
+        <v>1.3702336678072595</v>
+      </c>
+      <c r="S4">
+        <v>9.3195023442964953</v>
+      </c>
+      <c r="T4">
+        <v>5.6936294264453409</v>
+      </c>
+      <c r="U4">
+        <v>7.3387180537914656</v>
+      </c>
+      <c r="V4">
+        <v>1.3702336678072595</v>
+      </c>
+      <c r="W4">
+        <v>9.3195023442964953</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>2.7386127875258306</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>89.999999714219172</v>
+      </c>
+      <c r="I5">
+        <v>89.999999823167428</v>
+      </c>
+      <c r="J5">
+        <v>9.5519293182941965e-08</v>
+      </c>
+      <c r="K5">
+        <v>89.99999999881085</v>
+      </c>
+      <c r="L5">
+        <v>80.679452317020022</v>
+      </c>
+      <c r="M5">
+        <v>82.364199524358</v>
+      </c>
+      <c r="N5">
+        <v>1.2969803374957962</v>
+      </c>
+      <c r="O5">
+        <v>84.111191471508079</v>
+      </c>
+      <c r="P5">
+        <v>5.8888085284919214</v>
+      </c>
+      <c r="Q5">
+        <v>7.6358004756419984</v>
+      </c>
+      <c r="R5">
+        <v>1.2969803374957964</v>
+      </c>
+      <c r="S5">
+        <v>9.3205476829799778</v>
+      </c>
+      <c r="T5">
+        <v>5.8888085284919214</v>
+      </c>
+      <c r="U5">
+        <v>7.6358004756419984</v>
+      </c>
+      <c r="V5">
+        <v>1.2969803374957964</v>
+      </c>
+      <c r="W5">
+        <v>9.3205476829799778</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W10"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="true"/>
+    <col min="2" max="2" width="10.140625" customWidth="true"/>
+    <col min="3" max="3" width="11.85546875" customWidth="true"/>
+    <col min="4" max="4" width="10.85546875" customWidth="true"/>
+    <col min="5" max="5" width="12.42578125" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.140625" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12" customWidth="true"/>
+    <col min="13" max="13" width="13.5703125" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.28515625" customWidth="true"/>
+    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="20" max="20" width="14" customWidth="true"/>
+    <col min="21" max="21" width="15.5703125" customWidth="true"/>
+    <col min="22" max="22" width="13.28515625" customWidth="true"/>
+    <col min="23" max="23" width="14.28515625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>75</v>
+      </c>
+      <c r="E2">
+        <v>82.5</v>
+      </c>
+      <c r="F2">
+        <v>6.4549722436790278</v>
+      </c>
+      <c r="G2">
+        <v>90</v>
+      </c>
+      <c r="H2">
+        <v>74.999999998945086</v>
+      </c>
+      <c r="I2">
+        <v>82.499999998872553</v>
+      </c>
+      <c r="J2">
+        <v>6.4549722436185899</v>
+      </c>
+      <c r="K2">
+        <v>89.99999999881085</v>
+      </c>
+      <c r="L2">
+        <v>66.793645492782773</v>
+      </c>
+      <c r="M2">
+        <v>73.997795297690516</v>
+      </c>
+      <c r="N2">
+        <v>6.0990401645806278</v>
+      </c>
+      <c r="O2">
+        <v>81.00834084684746</v>
+      </c>
+      <c r="P2">
+        <v>8.1998097064862776</v>
+      </c>
+      <c r="Q2">
+        <v>8.5022047023094736</v>
+      </c>
+      <c r="R2">
+        <v>0.3787572468000287</v>
+      </c>
+      <c r="S2">
+        <v>8.9916591531525398</v>
+      </c>
+      <c r="T2">
+        <v>8.1998097064862776</v>
+      </c>
+      <c r="U2">
+        <v>8.5022047023094736</v>
+      </c>
+      <c r="V2">
+        <v>0.3787572468000287</v>
+      </c>
+      <c r="W2">
+        <v>8.9916591531525398</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>75</v>
+      </c>
+      <c r="E3">
+        <v>82.5</v>
+      </c>
+      <c r="F3">
+        <v>6.4549722436790278</v>
+      </c>
+      <c r="G3">
+        <v>90</v>
+      </c>
+      <c r="H3">
+        <v>74.999999999990123</v>
+      </c>
+      <c r="I3">
+        <v>82.499999977025254</v>
+      </c>
+      <c r="J3">
+        <v>6.4549722132399383</v>
+      </c>
+      <c r="K3">
+        <v>89.999999925847348</v>
+      </c>
+      <c r="L3">
+        <v>66.503879008402322</v>
+      </c>
+      <c r="M3">
+        <v>73.963788575399519</v>
+      </c>
+      <c r="N3">
+        <v>6.2192371228293251</v>
+      </c>
+      <c r="O3">
+        <v>81.092812321115744</v>
+      </c>
+      <c r="P3">
+        <v>8.0512223820583984</v>
+      </c>
+      <c r="Q3">
+        <v>8.5362114246004772</v>
+      </c>
+      <c r="R3">
+        <v>0.36432256689628967</v>
+      </c>
+      <c r="S3">
+        <v>8.9071876788842559</v>
+      </c>
+      <c r="T3">
+        <v>8.0512223820583984</v>
+      </c>
+      <c r="U3">
+        <v>8.5362114246004772</v>
+      </c>
+      <c r="V3">
+        <v>0.36432256689628967</v>
+      </c>
+      <c r="W3">
+        <v>8.9071876788842559</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>82.5</v>
+      </c>
+      <c r="F4">
+        <v>6.4549722436790278</v>
+      </c>
+      <c r="G4">
+        <v>90</v>
+      </c>
+      <c r="H4">
+        <v>74.999999994134001</v>
+      </c>
+      <c r="I4">
+        <v>82.499999924313812</v>
+      </c>
+      <c r="J4">
+        <v>6.4549721644938609</v>
+      </c>
+      <c r="K4">
+        <v>89.999999806504817</v>
+      </c>
+      <c r="L4">
+        <v>67.019621200507729</v>
+      </c>
+      <c r="M4">
+        <v>74.359752514106773</v>
+      </c>
+      <c r="N4">
+        <v>6.2340099644887541</v>
+      </c>
+      <c r="O4">
+        <v>81.524396367221328</v>
+      </c>
+      <c r="P4">
+        <v>7.9361557378824727</v>
+      </c>
+      <c r="Q4">
+        <v>8.1402474858932301</v>
+      </c>
+      <c r="R4">
+        <v>0.24528445324859746</v>
+      </c>
+      <c r="S4">
+        <v>8.4756036327786717</v>
+      </c>
+      <c r="T4">
+        <v>7.9361557378824727</v>
+      </c>
+      <c r="U4">
+        <v>8.1402474858932301</v>
+      </c>
+      <c r="V4">
+        <v>0.24528445324859746</v>
+      </c>
+      <c r="W4">
+        <v>8.4756036327786717</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
+      <c r="E5">
+        <v>82.5</v>
+      </c>
+      <c r="F5">
+        <v>6.4549722436790278</v>
+      </c>
+      <c r="G5">
+        <v>90</v>
+      </c>
+      <c r="H5">
+        <v>74.999999995265341</v>
+      </c>
+      <c r="I5">
+        <v>82.499999937769047</v>
+      </c>
+      <c r="J5">
+        <v>6.4549721764748567</v>
+      </c>
+      <c r="K5">
+        <v>89.999999833006072</v>
+      </c>
+      <c r="L5">
+        <v>66.310738459091013</v>
+      </c>
+      <c r="M5">
+        <v>73.45010632270737</v>
+      </c>
+      <c r="N5">
+        <v>6.1533941025492318</v>
+      </c>
+      <c r="O5">
+        <v>80.679452317020022</v>
+      </c>
+      <c r="P5">
+        <v>8.6892615409089871</v>
+      </c>
+      <c r="Q5">
+        <v>9.0498936772926335</v>
+      </c>
+      <c r="R5">
+        <v>0.32055425515034563</v>
+      </c>
+      <c r="S5">
+        <v>9.3205476829799778</v>
+      </c>
+      <c r="T5">
+        <v>8.6892615409089871</v>
+      </c>
+      <c r="U5">
+        <v>9.0498936772926335</v>
+      </c>
+      <c r="V5">
+        <v>0.32055425515034563</v>
+      </c>
+      <c r="W5">
+        <v>9.3205476829799778</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="E6">
+        <v>82.5</v>
+      </c>
+      <c r="F6">
+        <v>6.4549722436790278</v>
+      </c>
+      <c r="G6">
+        <v>90</v>
+      </c>
+      <c r="H6">
+        <v>74.999999992241953</v>
+      </c>
+      <c r="I6">
+        <v>82.499999906258751</v>
+      </c>
+      <c r="J6">
+        <v>6.4549721484079372</v>
+      </c>
+      <c r="K6">
+        <v>89.999999770902036</v>
+      </c>
+      <c r="L6">
+        <v>68.487461167066996</v>
+      </c>
+      <c r="M6">
+        <v>75.600060896457549</v>
+      </c>
+      <c r="N6">
+        <v>6.1915152954195811</v>
+      </c>
+      <c r="O6">
+        <v>82.801607029556735</v>
+      </c>
+      <c r="P6">
+        <v>6.5125388329330036</v>
+      </c>
+      <c r="Q6">
+        <v>6.8999391035424544</v>
+      </c>
+      <c r="R6">
+        <v>0.28469744263231794</v>
+      </c>
+      <c r="S6">
+        <v>7.1983929704432654</v>
+      </c>
+      <c r="T6">
+        <v>6.5125388329330036</v>
+      </c>
+      <c r="U6">
+        <v>6.8999391035424544</v>
+      </c>
+      <c r="V6">
+        <v>0.28469744263231794</v>
+      </c>
+      <c r="W6">
+        <v>7.1983929704432654</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>75</v>
+      </c>
+      <c r="E7">
+        <v>82.5</v>
+      </c>
+      <c r="F7">
+        <v>6.4549722436790278</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
+      <c r="H7">
+        <v>74.999999988899788</v>
+      </c>
+      <c r="I7">
+        <v>82.499999893061613</v>
+      </c>
+      <c r="J7">
+        <v>6.4549721282529262</v>
+      </c>
+      <c r="K7">
+        <v>89.999999714219172</v>
+      </c>
+      <c r="L7">
+        <v>69.922382123762659</v>
+      </c>
+      <c r="M7">
+        <v>76.767842474740277</v>
+      </c>
+      <c r="N7">
+        <v>5.9667749078828933</v>
+      </c>
+      <c r="O7">
+        <v>83.713865860301027</v>
+      </c>
+      <c r="P7">
+        <v>5.0776178762373405</v>
+      </c>
+      <c r="Q7">
+        <v>5.7321575252597263</v>
+      </c>
+      <c r="R7">
+        <v>0.50125782432512356</v>
+      </c>
+      <c r="S7">
+        <v>6.2861341396989729</v>
+      </c>
+      <c r="T7">
+        <v>5.0776178762373405</v>
+      </c>
+      <c r="U7">
+        <v>5.7321575252597263</v>
+      </c>
+      <c r="V7">
+        <v>0.50125782432512356</v>
+      </c>
+      <c r="W7">
+        <v>6.2861341396989729</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>75</v>
+      </c>
+      <c r="E8">
+        <v>82.5</v>
+      </c>
+      <c r="F8">
+        <v>6.4549722436790278</v>
+      </c>
+      <c r="G8">
+        <v>90</v>
+      </c>
+      <c r="H8">
+        <v>74.999999989234865</v>
+      </c>
+      <c r="I8">
+        <v>82.499999901957295</v>
+      </c>
+      <c r="J8">
+        <v>6.4549721429273692</v>
+      </c>
+      <c r="K8">
+        <v>89.999999749521095</v>
+      </c>
+      <c r="L8">
+        <v>69.267419597209297</v>
+      </c>
+      <c r="M8">
+        <v>76.069589876936675</v>
+      </c>
+      <c r="N8">
+        <v>5.9231255942467431</v>
+      </c>
+      <c r="O8">
+        <v>82.966410483030572</v>
+      </c>
+      <c r="P8">
+        <v>5.7325804027907026</v>
+      </c>
+      <c r="Q8">
+        <v>6.4304101230633322</v>
+      </c>
+      <c r="R8">
+        <v>0.54164065540313944</v>
+      </c>
+      <c r="S8">
+        <v>7.0335895169694282</v>
+      </c>
+      <c r="T8">
+        <v>5.7325804027907026</v>
+      </c>
+      <c r="U8">
+        <v>6.4304101230633322</v>
+      </c>
+      <c r="V8">
+        <v>0.54164065540313944</v>
+      </c>
+      <c r="W8">
+        <v>7.0335895169694282</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <v>82.5</v>
+      </c>
+      <c r="F9">
+        <v>6.4549722436790278</v>
+      </c>
+      <c r="G9">
+        <v>90</v>
+      </c>
+      <c r="H9">
+        <v>74.999999992592734</v>
+      </c>
+      <c r="I9">
+        <v>82.499999895437554</v>
+      </c>
+      <c r="J9">
+        <v>6.4549721330366427</v>
+      </c>
+      <c r="K9">
+        <v>89.999999732298235</v>
+      </c>
+      <c r="L9">
+        <v>69.464003315098381</v>
+      </c>
+      <c r="M9">
+        <v>76.479874636671425</v>
+      </c>
+      <c r="N9">
+        <v>5.9812174394844266</v>
+      </c>
+      <c r="O9">
+        <v>83.379719022621046</v>
+      </c>
+      <c r="P9">
+        <v>5.5359966849016189</v>
+      </c>
+      <c r="Q9">
+        <v>6.020125363328571</v>
+      </c>
+      <c r="R9">
+        <v>0.47941991683461654</v>
+      </c>
+      <c r="S9">
+        <v>6.6202809773789539</v>
+      </c>
+      <c r="T9">
+        <v>5.5359966849016189</v>
+      </c>
+      <c r="U9">
+        <v>6.020125363328571</v>
+      </c>
+      <c r="V9">
+        <v>0.47941991683461654</v>
+      </c>
+      <c r="W9">
+        <v>6.6202809773789539</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="E10">
+        <v>82.5</v>
+      </c>
+      <c r="F10">
+        <v>6.4549722436790278</v>
+      </c>
+      <c r="G10">
+        <v>90</v>
+      </c>
+      <c r="H10">
+        <v>74.999999990720482</v>
+      </c>
+      <c r="I10">
+        <v>82.499999928667748</v>
+      </c>
+      <c r="J10">
+        <v>6.4549721892478047</v>
+      </c>
+      <c r="K10">
+        <v>89.999999877397286</v>
+      </c>
+      <c r="L10">
+        <v>69.14184707823344</v>
+      </c>
+      <c r="M10">
+        <v>76.774539956179552</v>
+      </c>
+      <c r="N10">
+        <v>6.415953446765565</v>
+      </c>
+      <c r="O10">
+        <v>84.111191471508079</v>
+      </c>
+      <c r="P10">
+        <v>5.4612492985779539</v>
+      </c>
+      <c r="Q10">
+        <v>5.7254600438204442</v>
+      </c>
+      <c r="R10">
+        <v>0.19588315684455282</v>
+      </c>
+      <c r="S10">
+        <v>5.8888085284919214</v>
+      </c>
+      <c r="T10">
+        <v>5.4612492985779539</v>
+      </c>
+      <c r="U10">
+        <v>5.7254600438204442</v>
+      </c>
+      <c r="V10">
+        <v>0.19588315684455282</v>
+      </c>
+      <c r="W10">
+        <v>5.8888085284919214</v>
       </c>
     </row>
   </sheetData>
